--- a/biology/Histoire de la zoologie et de la botanique/Griffith_Hughes/Griffith_Hughes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Griffith_Hughes/Griffith_Hughes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Griffith Hughes est un naturaliste britannique, né en 1707 à Tywyn et mort en 1758.
 Il fait ses études au St John's College d’Oxford, il obtient en 1729 son Bachelor of Arts et son Master of Arts. Il devient membre de la Royal Society en 1748.
